--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Hsp90aa1-Egfr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>83.14803300000001</v>
+        <v>72.31432066666666</v>
       </c>
       <c r="H2">
-        <v>249.444099</v>
+        <v>216.942962</v>
       </c>
       <c r="I2">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="J2">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N2">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P2">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q2">
-        <v>130.88581318629</v>
+        <v>123.0738876674464</v>
       </c>
       <c r="R2">
-        <v>1177.97231867661</v>
+        <v>1107.664989007018</v>
       </c>
       <c r="S2">
-        <v>0.002615247393240191</v>
+        <v>0.002724431433220291</v>
       </c>
       <c r="T2">
-        <v>0.002615247393240191</v>
+        <v>0.002724431433220291</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>83.14803300000001</v>
+        <v>72.31432066666666</v>
       </c>
       <c r="H3">
-        <v>249.444099</v>
+        <v>216.942962</v>
       </c>
       <c r="I3">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="J3">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>187.511841</v>
       </c>
       <c r="O3">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P3">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q3">
-        <v>5197.080247786252</v>
+        <v>4519.930466290338</v>
       </c>
       <c r="R3">
-        <v>46773.72223007627</v>
+        <v>40679.37419661304</v>
       </c>
       <c r="S3">
-        <v>0.1038435735669691</v>
+        <v>0.1000556728296852</v>
       </c>
       <c r="T3">
-        <v>0.1038435735669691</v>
+        <v>0.1000556728296852</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>83.14803300000001</v>
+        <v>72.31432066666666</v>
       </c>
       <c r="H4">
-        <v>249.444099</v>
+        <v>216.942962</v>
       </c>
       <c r="I4">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="J4">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N4">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P4">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q4">
-        <v>15.208024679799</v>
+        <v>31.374941993326</v>
       </c>
       <c r="R4">
-        <v>136.872222118191</v>
+        <v>282.374477939934</v>
       </c>
       <c r="S4">
-        <v>0.0003038736279505572</v>
+        <v>0.0006945330142901642</v>
       </c>
       <c r="T4">
-        <v>0.0003038736279505572</v>
+        <v>0.0006945330142901643</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>83.14803300000001</v>
+        <v>72.31432066666666</v>
       </c>
       <c r="H5">
-        <v>249.444099</v>
+        <v>216.942962</v>
       </c>
       <c r="I5">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="J5">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N5">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P5">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q5">
-        <v>1112.961310682878</v>
+        <v>1155.032098387136</v>
       </c>
       <c r="R5">
-        <v>10016.6517961459</v>
+        <v>10395.28888548422</v>
       </c>
       <c r="S5">
-        <v>0.022238232667721</v>
+        <v>0.0255684273477017</v>
       </c>
       <c r="T5">
-        <v>0.022238232667721</v>
+        <v>0.02556842734770171</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>83.14803300000001</v>
+        <v>72.31432066666666</v>
       </c>
       <c r="H6">
-        <v>249.444099</v>
+        <v>216.942962</v>
       </c>
       <c r="I6">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="J6">
-        <v>0.1291567785869119</v>
+        <v>0.1293883843050027</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N6">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P6">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q6">
-        <v>7.799922963653001</v>
+        <v>15.59952473034556</v>
       </c>
       <c r="R6">
-        <v>70.199306672877</v>
+        <v>140.39572257311</v>
       </c>
       <c r="S6">
-        <v>0.0001558513310310741</v>
+        <v>0.0003453196801054014</v>
       </c>
       <c r="T6">
-        <v>0.0001558513310310741</v>
+        <v>0.0003453196801054014</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>462.167831</v>
       </c>
       <c r="I7">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="J7">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N7">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P7">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q7">
-        <v>242.50408260401</v>
+        <v>262.1923808526288</v>
       </c>
       <c r="R7">
-        <v>2182.53674343609</v>
+        <v>2359.731427673659</v>
       </c>
       <c r="S7">
-        <v>0.004845507350575661</v>
+        <v>0.005804035100247425</v>
       </c>
       <c r="T7">
-        <v>0.004845507350575662</v>
+        <v>0.005804035100247425</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>462.167831</v>
       </c>
       <c r="I8">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="J8">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>187.511841</v>
       </c>
       <c r="O8">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P8">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q8">
         <v>9629.10453797632</v>
@@ -948,10 +948,10 @@
         <v>86661.94084178688</v>
       </c>
       <c r="S8">
-        <v>0.1924004590653196</v>
+        <v>0.2131551669832056</v>
       </c>
       <c r="T8">
-        <v>0.1924004590653196</v>
+        <v>0.2131551669832056</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>462.167831</v>
       </c>
       <c r="I9">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="J9">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N9">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P9">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q9">
-        <v>28.17729426446434</v>
+        <v>66.84009822271301</v>
       </c>
       <c r="R9">
-        <v>253.595648380179</v>
+        <v>601.5608840044172</v>
       </c>
       <c r="S9">
-        <v>0.000563014383146462</v>
+        <v>0.001479609266017015</v>
       </c>
       <c r="T9">
-        <v>0.0005630143831464621</v>
+        <v>0.001479609266017015</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>462.167831</v>
       </c>
       <c r="I10">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="J10">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N10">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P10">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q10">
-        <v>2062.084920057471</v>
+        <v>2460.640689726368</v>
       </c>
       <c r="R10">
-        <v>18558.76428051724</v>
+        <v>22145.76620753732</v>
       </c>
       <c r="S10">
-        <v>0.04120280174402505</v>
+        <v>0.05447009896254841</v>
       </c>
       <c r="T10">
-        <v>0.04120280174402506</v>
+        <v>0.05447009896254842</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>462.167831</v>
       </c>
       <c r="I11">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="J11">
-        <v>0.2393005425173851</v>
+        <v>0.2756445674916043</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N11">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P11">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q11">
-        <v>14.45162861150144</v>
+        <v>33.23269140786723</v>
       </c>
       <c r="R11">
-        <v>130.064657503513</v>
+        <v>299.094222670805</v>
       </c>
       <c r="S11">
-        <v>0.0002887599743183122</v>
+        <v>0.0007356571795858823</v>
       </c>
       <c r="T11">
-        <v>0.0002887599743183122</v>
+        <v>0.0007356571795858823</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>154.1469826666666</v>
+        <v>168.0546723333333</v>
       </c>
       <c r="H12">
-        <v>462.4409479999999</v>
+        <v>504.1640170000001</v>
       </c>
       <c r="I12">
-        <v>0.2394419566139251</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="J12">
-        <v>0.2394419566139251</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N12">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P12">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q12">
-        <v>242.64738982508</v>
+        <v>286.0172324660459</v>
       </c>
       <c r="R12">
-        <v>2183.82650842572</v>
+        <v>2574.155092194413</v>
       </c>
       <c r="S12">
-        <v>0.004848370791824273</v>
+        <v>0.006331435151205362</v>
       </c>
       <c r="T12">
-        <v>0.004848370791824273</v>
+        <v>0.006331435151205362</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>154.1469826666666</v>
+        <v>168.0546723333333</v>
       </c>
       <c r="H13">
-        <v>462.4409479999999</v>
+        <v>504.1640170000001</v>
       </c>
       <c r="I13">
-        <v>0.2394419566139251</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="J13">
-        <v>0.2394419566139251</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>187.511841</v>
       </c>
       <c r="O13">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P13">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q13">
-        <v>9634.794834807251</v>
+        <v>10504.08033262503</v>
       </c>
       <c r="R13">
-        <v>86713.15351326526</v>
+        <v>94536.72299362531</v>
       </c>
       <c r="S13">
-        <v>0.1925141576671129</v>
+        <v>0.2325241135845275</v>
       </c>
       <c r="T13">
-        <v>0.1925141576671129</v>
+        <v>0.2325241135845275</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>154.1469826666666</v>
+        <v>168.0546723333333</v>
       </c>
       <c r="H14">
-        <v>462.4409479999999</v>
+        <v>504.1640170000001</v>
       </c>
       <c r="I14">
-        <v>0.2394419566139251</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="J14">
-        <v>0.2394419566139251</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N14">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P14">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q14">
-        <v>28.19394557068133</v>
+        <v>72.91371263059102</v>
       </c>
       <c r="R14">
-        <v>253.745510136132</v>
+        <v>656.2234136753192</v>
       </c>
       <c r="S14">
-        <v>0.0005633470951808523</v>
+        <v>0.001614058143189027</v>
       </c>
       <c r="T14">
-        <v>0.0005633470951808523</v>
+        <v>0.001614058143189027</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>154.1469826666666</v>
+        <v>168.0546723333333</v>
       </c>
       <c r="H15">
-        <v>462.4409479999999</v>
+        <v>504.1640170000001</v>
       </c>
       <c r="I15">
-        <v>0.2394419566139251</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="J15">
-        <v>0.2394419566139251</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N15">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P15">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q15">
-        <v>2063.303504323478</v>
+        <v>2684.233759502176</v>
       </c>
       <c r="R15">
-        <v>18569.7315389113</v>
+        <v>24158.10383551959</v>
       </c>
       <c r="S15">
-        <v>0.04122715044345654</v>
+        <v>0.05941967843137472</v>
       </c>
       <c r="T15">
-        <v>0.04122715044345654</v>
+        <v>0.05941967843137473</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>154.1469826666666</v>
+        <v>168.0546723333333</v>
       </c>
       <c r="H16">
-        <v>462.4409479999999</v>
+        <v>504.1640170000001</v>
       </c>
       <c r="I16">
-        <v>0.2394419566139251</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="J16">
-        <v>0.2394419566139251</v>
+        <v>0.300691790058393</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N16">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P16">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q16">
-        <v>14.46016876766711</v>
+        <v>36.25247382462612</v>
       </c>
       <c r="R16">
-        <v>130.141518909004</v>
+        <v>326.272264421635</v>
       </c>
       <c r="S16">
-        <v>0.0002889306163505264</v>
+        <v>0.0008025047480963876</v>
       </c>
       <c r="T16">
-        <v>0.0002889306163505264</v>
+        <v>0.0008025047480963876</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>119.5626293333333</v>
+        <v>65.818911</v>
       </c>
       <c r="H17">
-        <v>358.687888</v>
+        <v>197.456733</v>
       </c>
       <c r="I17">
-        <v>0.1857208581720069</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="J17">
-        <v>0.185720858172007</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N17">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P17">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q17">
-        <v>188.20712171248</v>
+        <v>112.019157258593</v>
       </c>
       <c r="R17">
-        <v>1693.86409541232</v>
+        <v>1008.172415327337</v>
       </c>
       <c r="S17">
-        <v>0.003760592324450335</v>
+        <v>0.002479717825951811</v>
       </c>
       <c r="T17">
-        <v>0.003760592324450336</v>
+        <v>0.002479717825951811</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>119.5626293333333</v>
+        <v>65.818911</v>
       </c>
       <c r="H18">
-        <v>358.687888</v>
+        <v>197.456733</v>
       </c>
       <c r="I18">
-        <v>0.1857208581720069</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="J18">
-        <v>0.185720858172007</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>187.511841</v>
       </c>
       <c r="O18">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P18">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q18">
-        <v>7473.136247031313</v>
+        <v>4113.941724741717</v>
       </c>
       <c r="R18">
-        <v>67258.22622328182</v>
+        <v>37025.47552267546</v>
       </c>
       <c r="S18">
-        <v>0.1493217608050482</v>
+        <v>0.09106848220808608</v>
       </c>
       <c r="T18">
-        <v>0.1493217608050482</v>
+        <v>0.0910684822080861</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>119.5626293333333</v>
+        <v>65.818911</v>
       </c>
       <c r="H19">
-        <v>358.687888</v>
+        <v>197.456733</v>
       </c>
       <c r="I19">
-        <v>0.1857208581720069</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="J19">
-        <v>0.185720858172007</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N19">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P19">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q19">
-        <v>21.86836359295467</v>
+        <v>28.556785096659</v>
       </c>
       <c r="R19">
-        <v>196.815272336592</v>
+        <v>257.011065869931</v>
       </c>
       <c r="S19">
-        <v>0.0004369547736965433</v>
+        <v>0.0006321487394570475</v>
       </c>
       <c r="T19">
-        <v>0.0004369547736965433</v>
+        <v>0.0006321487394570476</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>119.5626293333333</v>
+        <v>65.818911</v>
       </c>
       <c r="H20">
-        <v>358.687888</v>
+        <v>197.456733</v>
       </c>
       <c r="I20">
-        <v>0.1857208581720069</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="J20">
-        <v>0.185720858172007</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N20">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P20">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q20">
-        <v>1600.381582707047</v>
+        <v>1051.284920953824</v>
       </c>
       <c r="R20">
-        <v>14403.43424436343</v>
+        <v>9461.564288584417</v>
       </c>
       <c r="S20">
-        <v>0.03197744400615166</v>
+        <v>0.02327182262785291</v>
       </c>
       <c r="T20">
-        <v>0.03197744400615167</v>
+        <v>0.02327182262785291</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>119.5626293333333</v>
+        <v>65.818911</v>
       </c>
       <c r="H21">
-        <v>358.687888</v>
+        <v>197.456733</v>
       </c>
       <c r="I21">
-        <v>0.1857208581720069</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="J21">
-        <v>0.185720858172007</v>
+        <v>0.11776647381174</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N21">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P21">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q21">
-        <v>11.21589127829156</v>
+        <v>14.198345782735</v>
       </c>
       <c r="R21">
-        <v>100.943021504624</v>
+        <v>127.785112044615</v>
       </c>
       <c r="S21">
-        <v>0.0002241062626601756</v>
+        <v>0.0003143024103921733</v>
       </c>
       <c r="T21">
-        <v>0.0002241062626601756</v>
+        <v>0.0003143024103921733</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>132.8624013333333</v>
+        <v>98.64960366666666</v>
       </c>
       <c r="H22">
-        <v>398.587204</v>
+        <v>295.948811</v>
       </c>
       <c r="I22">
-        <v>0.2063798641097711</v>
+        <v>0.17650878433326</v>
       </c>
       <c r="J22">
-        <v>0.2063798641097711</v>
+        <v>0.1765087843332599</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.57413</v>
+        <v>1.701929666666667</v>
       </c>
       <c r="N22">
-        <v>4.72239</v>
+        <v>5.105789</v>
       </c>
       <c r="O22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="P22">
-        <v>0.02024862668342525</v>
+        <v>0.02105622887134972</v>
       </c>
       <c r="Q22">
-        <v>209.14269181084</v>
+        <v>167.8946870852088</v>
       </c>
       <c r="R22">
-        <v>1882.28422629756</v>
+        <v>1511.052183766879</v>
       </c>
       <c r="S22">
-        <v>0.004178908823334787</v>
+        <v>0.003716609360724829</v>
       </c>
       <c r="T22">
-        <v>0.004178908823334787</v>
+        <v>0.003716609360724829</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>132.8624013333333</v>
+        <v>98.64960366666666</v>
       </c>
       <c r="H23">
-        <v>398.587204</v>
+        <v>295.948811</v>
       </c>
       <c r="I23">
-        <v>0.2063798641097711</v>
+        <v>0.17650878433326</v>
       </c>
       <c r="J23">
-        <v>0.2063798641097711</v>
+        <v>0.1765087843332599</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>187.511841</v>
       </c>
       <c r="O23">
-        <v>0.804011796385049</v>
+        <v>0.7732971809418951</v>
       </c>
       <c r="P23">
-        <v>0.8040117963850492</v>
+        <v>0.7732971809418953</v>
       </c>
       <c r="Q23">
-        <v>8304.424491231397</v>
+        <v>6165.989599152339</v>
       </c>
       <c r="R23">
-        <v>74739.82042108256</v>
+        <v>55493.90639237105</v>
       </c>
       <c r="S23">
-        <v>0.1659318452805993</v>
+        <v>0.1364937453363909</v>
       </c>
       <c r="T23">
-        <v>0.1659318452805994</v>
+        <v>0.1364937453363909</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,46 +1904,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>132.8624013333333</v>
+        <v>98.64960366666666</v>
       </c>
       <c r="H24">
-        <v>398.587204</v>
+        <v>295.948811</v>
       </c>
       <c r="I24">
-        <v>0.2063798641097711</v>
+        <v>0.17650878433326</v>
       </c>
       <c r="J24">
-        <v>0.2063798641097711</v>
+        <v>0.1765087843332599</v>
       </c>
       <c r="K24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.182903</v>
+        <v>0.4338690000000001</v>
       </c>
       <c r="N24">
-        <v>0.548709</v>
+        <v>1.301607</v>
       </c>
       <c r="O24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265532</v>
       </c>
       <c r="P24">
-        <v>0.002352750132631058</v>
+        <v>0.005367815805265533</v>
       </c>
       <c r="Q24">
-        <v>24.30093179107067</v>
+        <v>42.80100489325301</v>
       </c>
       <c r="R24">
-        <v>218.708386119636</v>
+        <v>385.209044039277</v>
       </c>
       <c r="S24">
-        <v>0.0004855602526566437</v>
+        <v>0.000947466642312278</v>
       </c>
       <c r="T24">
-        <v>0.0004855602526566437</v>
+        <v>0.000947466642312278</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>132.8624013333333</v>
+        <v>98.64960366666666</v>
       </c>
       <c r="H25">
-        <v>398.587204</v>
+        <v>295.948811</v>
       </c>
       <c r="I25">
-        <v>0.2063798641097711</v>
+        <v>0.17650878433326</v>
       </c>
       <c r="J25">
-        <v>0.2063798641097711</v>
+        <v>0.1765087843332599</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>13.38529933333333</v>
+        <v>15.972384</v>
       </c>
       <c r="N25">
-        <v>40.155898</v>
+        <v>47.917152</v>
       </c>
       <c r="O25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="P25">
-        <v>0.1721801434738983</v>
+        <v>0.1976099128607259</v>
       </c>
       <c r="Q25">
-        <v>1778.403011992133</v>
+        <v>1575.669351211808</v>
       </c>
       <c r="R25">
-        <v>16005.62710792919</v>
+        <v>14181.02416090627</v>
       </c>
       <c r="S25">
-        <v>0.03553451461254401</v>
+        <v>0.03487988549124817</v>
       </c>
       <c r="T25">
-        <v>0.03553451461254401</v>
+        <v>0.03487988549124817</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>132.8624013333333</v>
+        <v>98.64960366666666</v>
       </c>
       <c r="H26">
-        <v>398.587204</v>
+        <v>295.948811</v>
       </c>
       <c r="I26">
-        <v>0.2063798641097711</v>
+        <v>0.17650878433326</v>
       </c>
       <c r="J26">
-        <v>0.2063798641097711</v>
+        <v>0.1765087843332599</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>0.09380766666666666</v>
+        <v>0.2157183333333333</v>
       </c>
       <c r="N26">
-        <v>0.281423</v>
+        <v>0.647155</v>
       </c>
       <c r="O26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="P26">
-        <v>0.001206683324996365</v>
+        <v>0.002668861520763652</v>
       </c>
       <c r="Q26">
-        <v>12.46351185681022</v>
+        <v>21.28052808696722</v>
       </c>
       <c r="R26">
-        <v>112.171606711292</v>
+        <v>191.524752782705</v>
       </c>
       <c r="S26">
-        <v>0.0002490351406362765</v>
+        <v>0.0004710775025838078</v>
       </c>
       <c r="T26">
-        <v>0.0002490351406362765</v>
+        <v>0.0004710775025838077</v>
       </c>
     </row>
   </sheetData>
